--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop D\3rd year\PUSL3190_MDCGunathilaka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F60528-E208-468F-8BAC-DF95D64032C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8094B4-01BF-42FB-AA61-D7458D65C6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{59E5ECE7-1840-4FFB-B715-8C66FA8485E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Background Research</t>
   </si>
@@ -107,9 +107,6 @@
     <t>March</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -159,18 +156,6 @@
   </si>
   <si>
     <t>week20</t>
-  </si>
-  <si>
-    <t>week21</t>
-  </si>
-  <si>
-    <t>week22</t>
-  </si>
-  <si>
-    <t>week23</t>
-  </si>
-  <si>
-    <t>week24</t>
   </si>
 </sst>
 </file>
@@ -241,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -352,14 +337,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -367,10 +361,45 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -379,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -411,12 +440,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,6 +485,16 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -469,6 +525,13 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -877,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE4C971-B4FE-4DB8-A4F3-9F8B5B2777CE}">
-  <dimension ref="B4:Z22"/>
+  <dimension ref="B3:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,6 +969,7 @@
     <col min="26" max="26" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="17">
         <v>2023</v>
@@ -927,18 +991,18 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>8</v>
@@ -974,44 +1038,36 @@
         <v>19</v>
       </c>
       <c r="N5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="U5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="V5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="W5" s="38"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
@@ -1037,19 +1093,17 @@
         <v>21</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="6"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="24"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -1072,13 +1126,13 @@
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
@@ -1101,13 +1155,13 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="2"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
@@ -1130,13 +1184,13 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="2"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
@@ -1146,11 +1200,11 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="27"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
@@ -1159,13 +1213,13 @@
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="2"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
@@ -1188,13 +1242,13 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="2"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
@@ -1217,15 +1271,15 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="2"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1243,20 +1297,20 @@
       <c r="N13" s="20"/>
       <c r="O13" s="1"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="28"/>
+      <c r="Q13" s="26"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="4"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1264,7 +1318,7 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1272,27 +1326,27 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
